--- a/_Project/_ProjectF/엑셀파일/DB/DB.xlsx
+++ b/_Project/_ProjectF/엑셀파일/DB/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share-422\_Final - 경매 + 쇼핑몰 (아나바다.ver2)\엑셀파일\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV-documents\my-study\_Project\_ProjectF\엑셀파일\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025B2AA6-E967-4B97-9568-8C99E80E4B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1030AE7-47C8-4D19-AC93-DC901BC3E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1485" windowWidth="21600" windowHeight="12630" firstSheet="14" activeTab="20" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
+    <workbookView xWindow="1290" yWindow="0" windowWidth="21600" windowHeight="12630" activeTab="4" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자" sheetId="1" r:id="rId1"/>
@@ -2854,7 +2854,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3144,13 +3144,13 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3483,7 +3483,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
@@ -3497,7 +3497,7 @@
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>398</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>662</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>634</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>347</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>652</v>
       </c>
@@ -3856,7 +3856,7 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
@@ -3875,7 +3875,7 @@
     <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>39</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>275</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>289</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="33">
+    <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>286</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>543</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>548</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>421</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>279</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>680</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>681</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>668</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>670</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>672</v>
       </c>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>676</v>
       </c>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>566</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>584</v>
       </c>
@@ -4367,7 +4367,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
@@ -4377,7 +4377,7 @@
     <col min="7" max="7" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>550</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="66">
+    <row r="3" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>273</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>271</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>694</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4524,12 +4524,12 @@
         <v>696</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>4</v>
       </c>
@@ -4551,7 +4551,7 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="22" bestFit="1" customWidth="1"/>
@@ -4570,7 +4570,7 @@
     <col min="20" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C1" s="22">
         <v>1</v>
       </c>
@@ -4584,23 +4584,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="F2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="33"/>
       <c r="O2" s="30" t="s">
         <v>534</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="22">
         <v>10</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="H3" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="35" t="s">
         <v>534</v>
       </c>
       <c r="J3" s="26" t="s">
@@ -4652,7 +4652,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="22">
         <v>20</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>531</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="33"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="23" t="s">
         <v>445</v>
       </c>
@@ -4680,9 +4680,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="23" t="s">
         <v>509</v>
       </c>
@@ -4696,9 +4696,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H6" s="34"/>
-      <c r="I6" s="33"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="23" t="s">
         <v>440</v>
       </c>
@@ -4714,9 +4714,9 @@
       <c r="R6" s="27"/>
       <c r="S6" s="27"/>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H7" s="34"/>
-      <c r="I7" s="33"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="23" t="s">
         <v>438</v>
       </c>
@@ -4733,9 +4733,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H8" s="34"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="23" t="s">
         <v>436</v>
       </c>
@@ -4749,9 +4749,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H9" s="34"/>
-      <c r="I9" s="33"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="23" t="s">
         <v>433</v>
       </c>
@@ -4762,9 +4762,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H10" s="34"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="23" t="s">
         <v>430</v>
       </c>
@@ -4775,9 +4775,9 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H11" s="34"/>
-      <c r="I11" s="33"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="23" t="s">
         <v>428</v>
       </c>
@@ -4797,9 +4797,9 @@
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H12" s="34"/>
-      <c r="I12" s="33"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="23" t="s">
         <v>465</v>
       </c>
@@ -4813,9 +4813,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H13" s="34"/>
-      <c r="I13" s="33"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="23" t="s">
         <v>463</v>
       </c>
@@ -4829,9 +4829,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H14" s="34"/>
-      <c r="I14" s="33"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="23" t="s">
         <v>461</v>
       </c>
@@ -4845,9 +4845,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H15" s="34"/>
-      <c r="I15" s="33"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="23" t="s">
         <v>459</v>
       </c>
@@ -4858,9 +4858,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H16" s="34"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="23" t="s">
         <v>523</v>
       </c>
@@ -4876,9 +4876,9 @@
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
     </row>
-    <row r="17" spans="8:19">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H17" s="34"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="23" t="s">
         <v>521</v>
       </c>
@@ -4895,9 +4895,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="8:19">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H18" s="34"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="23" t="s">
         <v>517</v>
       </c>
@@ -4911,9 +4911,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="8:19">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H19" s="34"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="23" t="s">
         <v>514</v>
       </c>
@@ -4927,9 +4927,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="20" spans="8:19">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H20" s="34"/>
-      <c r="I20" s="33"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="23" t="s">
         <v>511</v>
       </c>
@@ -4943,11 +4943,11 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="8:19">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H21" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="35" t="s">
         <v>508</v>
       </c>
       <c r="J21" s="26" t="s">
@@ -4960,9 +4960,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="8:19">
+    <row r="22" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H22" s="34"/>
-      <c r="I22" s="33"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="23" t="s">
         <v>445</v>
       </c>
@@ -4973,9 +4973,9 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="8:19">
+    <row r="23" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H23" s="34"/>
-      <c r="I23" s="33"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="23" t="s">
         <v>443</v>
       </c>
@@ -4995,9 +4995,9 @@
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
     </row>
-    <row r="24" spans="8:19">
+    <row r="24" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H24" s="34"/>
-      <c r="I24" s="33"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="23" t="s">
         <v>440</v>
       </c>
@@ -5011,9 +5011,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="8:19">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H25" s="34"/>
-      <c r="I25" s="33"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="23" t="s">
         <v>438</v>
       </c>
@@ -5027,9 +5027,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="8:19">
+    <row r="26" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H26" s="34"/>
-      <c r="I26" s="33"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="23" t="s">
         <v>436</v>
       </c>
@@ -5040,9 +5040,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="27" spans="8:19">
+    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H27" s="34"/>
-      <c r="I27" s="33"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="23" t="s">
         <v>433</v>
       </c>
@@ -5058,9 +5058,9 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
     </row>
-    <row r="28" spans="8:19">
+    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H28" s="34"/>
-      <c r="I28" s="33"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="23" t="s">
         <v>430</v>
       </c>
@@ -5074,9 +5074,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="29" spans="8:19">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H29" s="34"/>
-      <c r="I29" s="33"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="23" t="s">
         <v>428</v>
       </c>
@@ -5087,9 +5087,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="8:19">
+    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H30" s="34"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="23" t="s">
         <v>465</v>
       </c>
@@ -5097,9 +5097,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="31" spans="8:19">
+    <row r="31" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H31" s="34"/>
-      <c r="I31" s="33"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="26" t="s">
         <v>447</v>
       </c>
@@ -5107,11 +5107,11 @@
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="8:19">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H32" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="I32" s="33" t="s">
+      <c r="I32" s="35" t="s">
         <v>496</v>
       </c>
       <c r="J32" s="23" t="s">
@@ -5131,9 +5131,9 @@
       <c r="R32" s="28"/>
       <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="8:19">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33" s="34"/>
-      <c r="I33" s="33"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="23" t="s">
         <v>443</v>
       </c>
@@ -5144,9 +5144,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="34" spans="8:19">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H34" s="34"/>
-      <c r="I34" s="33"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="23" t="s">
         <v>440</v>
       </c>
@@ -5154,9 +5154,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="35" spans="8:19">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H35" s="34"/>
-      <c r="I35" s="33"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="23" t="s">
         <v>438</v>
       </c>
@@ -5170,9 +5170,9 @@
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
     </row>
-    <row r="36" spans="8:19">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36" s="34"/>
-      <c r="I36" s="33"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="23" t="s">
         <v>436</v>
       </c>
@@ -5189,9 +5189,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="37" spans="8:19">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37" s="34"/>
-      <c r="I37" s="33"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="23" t="s">
         <v>433</v>
       </c>
@@ -5202,9 +5202,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="38" spans="8:19">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H38" s="34"/>
-      <c r="I38" s="33"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="23" t="s">
         <v>430</v>
       </c>
@@ -5215,9 +5215,9 @@
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="8:19">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H39" s="34"/>
-      <c r="I39" s="33"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="23" t="s">
         <v>428</v>
       </c>
@@ -5226,11 +5226,11 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="8:19">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="35" t="s">
         <v>481</v>
       </c>
       <c r="J40" s="26" t="s">
@@ -5239,59 +5239,59 @@
       <c r="K40" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="L40" s="33" t="s">
+      <c r="L40" s="35" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="8:19">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41" s="34"/>
-      <c r="I41" s="33"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="23" t="s">
         <v>445</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="L41" s="33"/>
-    </row>
-    <row r="42" spans="8:19">
+      <c r="L41" s="35"/>
+    </row>
+    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H42" s="34"/>
-      <c r="I42" s="33"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="23" t="s">
         <v>443</v>
       </c>
       <c r="K42" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="L42" s="33"/>
-    </row>
-    <row r="43" spans="8:19">
+      <c r="L42" s="35"/>
+    </row>
+    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H43" s="34"/>
-      <c r="I43" s="33"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="23" t="s">
         <v>440</v>
       </c>
       <c r="K43" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="L43" s="33"/>
-    </row>
-    <row r="44" spans="8:19">
+      <c r="L43" s="35"/>
+    </row>
+    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H44" s="34"/>
-      <c r="I44" s="33"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="23" t="s">
         <v>438</v>
       </c>
       <c r="K44" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="L44" s="33"/>
-    </row>
-    <row r="45" spans="8:19">
+      <c r="L44" s="35"/>
+    </row>
+    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H45" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="35" t="s">
         <v>479</v>
       </c>
       <c r="J45" s="23" t="s">
@@ -5300,57 +5300,57 @@
       <c r="K45" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L45" s="33"/>
-    </row>
-    <row r="46" spans="8:19">
+      <c r="L45" s="35"/>
+    </row>
+    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H46" s="34"/>
-      <c r="I46" s="33"/>
+      <c r="I46" s="35"/>
       <c r="J46" s="23" t="s">
         <v>445</v>
       </c>
       <c r="K46" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="L46" s="33"/>
-    </row>
-    <row r="47" spans="8:19">
+      <c r="L46" s="35"/>
+    </row>
+    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H47" s="34"/>
-      <c r="I47" s="33"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="23" t="s">
         <v>443</v>
       </c>
       <c r="K47" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="L47" s="33"/>
-    </row>
-    <row r="48" spans="8:19">
+      <c r="L47" s="35"/>
+    </row>
+    <row r="48" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H48" s="34"/>
-      <c r="I48" s="33"/>
+      <c r="I48" s="35"/>
       <c r="J48" s="23" t="s">
         <v>440</v>
       </c>
       <c r="K48" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="L48" s="33"/>
-    </row>
-    <row r="49" spans="8:12">
+      <c r="L48" s="35"/>
+    </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H49" s="34"/>
-      <c r="I49" s="33"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="23" t="s">
         <v>438</v>
       </c>
       <c r="K49" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="L49" s="33"/>
-    </row>
-    <row r="50" spans="8:12">
+      <c r="L49" s="35"/>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H50" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="35" t="s">
         <v>474</v>
       </c>
       <c r="J50" s="23" t="s">
@@ -5360,9 +5360,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="51" spans="8:12">
+    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H51" s="34"/>
-      <c r="I51" s="33"/>
+      <c r="I51" s="35"/>
       <c r="J51" s="23" t="s">
         <v>445</v>
       </c>
@@ -5370,9 +5370,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="8:12">
+    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H52" s="34"/>
-      <c r="I52" s="33"/>
+      <c r="I52" s="35"/>
       <c r="J52" s="23" t="s">
         <v>443</v>
       </c>
@@ -5380,9 +5380,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="8:12">
+    <row r="53" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H53" s="34"/>
-      <c r="I53" s="33"/>
+      <c r="I53" s="35"/>
       <c r="J53" s="23" t="s">
         <v>440</v>
       </c>
@@ -5390,9 +5390,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="54" spans="8:12">
+    <row r="54" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H54" s="34"/>
-      <c r="I54" s="33"/>
+      <c r="I54" s="35"/>
       <c r="J54" s="23" t="s">
         <v>438</v>
       </c>
@@ -5400,9 +5400,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="55" spans="8:12">
+    <row r="55" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H55" s="34"/>
-      <c r="I55" s="33"/>
+      <c r="I55" s="35"/>
       <c r="J55" s="23" t="s">
         <v>436</v>
       </c>
@@ -5410,9 +5410,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="56" spans="8:12">
+    <row r="56" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H56" s="34"/>
-      <c r="I56" s="33"/>
+      <c r="I56" s="35"/>
       <c r="J56" s="23" t="s">
         <v>433</v>
       </c>
@@ -5420,9 +5420,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="8:12">
+    <row r="57" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H57" s="34"/>
-      <c r="I57" s="33"/>
+      <c r="I57" s="35"/>
       <c r="J57" s="23" t="s">
         <v>430</v>
       </c>
@@ -5430,9 +5430,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="58" spans="8:12">
+    <row r="58" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H58" s="34"/>
-      <c r="I58" s="33"/>
+      <c r="I58" s="35"/>
       <c r="J58" s="23" t="s">
         <v>428</v>
       </c>
@@ -5440,9 +5440,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="59" spans="8:12">
+    <row r="59" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H59" s="34"/>
-      <c r="I59" s="33"/>
+      <c r="I59" s="35"/>
       <c r="J59" s="23" t="s">
         <v>465</v>
       </c>
@@ -5450,9 +5450,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="8:12">
+    <row r="60" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H60" s="34"/>
-      <c r="I60" s="33"/>
+      <c r="I60" s="35"/>
       <c r="J60" s="23" t="s">
         <v>463</v>
       </c>
@@ -5460,9 +5460,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="8:12">
+    <row r="61" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H61" s="34"/>
-      <c r="I61" s="33"/>
+      <c r="I61" s="35"/>
       <c r="J61" s="23" t="s">
         <v>461</v>
       </c>
@@ -5470,9 +5470,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="8:12">
+    <row r="62" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H62" s="34"/>
-      <c r="I62" s="33"/>
+      <c r="I62" s="35"/>
       <c r="J62" s="23" t="s">
         <v>459</v>
       </c>
@@ -5480,11 +5480,11 @@
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="8:12">
+    <row r="63" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H63" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="I63" s="33" t="s">
+      <c r="I63" s="35" t="s">
         <v>457</v>
       </c>
       <c r="J63" s="23" t="s">
@@ -5494,9 +5494,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="64" spans="8:12">
+    <row r="64" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H64" s="34"/>
-      <c r="I64" s="33"/>
+      <c r="I64" s="35"/>
       <c r="J64" s="23" t="s">
         <v>445</v>
       </c>
@@ -5504,9 +5504,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="65" spans="8:12">
+    <row r="65" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H65" s="34"/>
-      <c r="I65" s="33"/>
+      <c r="I65" s="35"/>
       <c r="J65" s="23" t="s">
         <v>443</v>
       </c>
@@ -5517,9 +5517,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="66" spans="8:12">
+    <row r="66" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H66" s="34"/>
-      <c r="I66" s="33"/>
+      <c r="I66" s="35"/>
       <c r="J66" s="23" t="s">
         <v>440</v>
       </c>
@@ -5527,9 +5527,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="67" spans="8:12">
+    <row r="67" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H67" s="34"/>
-      <c r="I67" s="33"/>
+      <c r="I67" s="35"/>
       <c r="J67" s="23" t="s">
         <v>438</v>
       </c>
@@ -5538,9 +5538,9 @@
       </c>
       <c r="L67"/>
     </row>
-    <row r="68" spans="8:12">
+    <row r="68" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H68" s="34"/>
-      <c r="I68" s="33"/>
+      <c r="I68" s="35"/>
       <c r="J68" s="23" t="s">
         <v>436</v>
       </c>
@@ -5548,9 +5548,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="8:12">
+    <row r="69" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H69" s="34"/>
-      <c r="I69" s="33"/>
+      <c r="I69" s="35"/>
       <c r="J69" s="23" t="s">
         <v>433</v>
       </c>
@@ -5558,9 +5558,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="70" spans="8:12">
+    <row r="70" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H70" s="34"/>
-      <c r="I70" s="33"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="23" t="s">
         <v>430</v>
       </c>
@@ -5568,9 +5568,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="71" spans="8:12">
+    <row r="71" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H71" s="34"/>
-      <c r="I71" s="33"/>
+      <c r="I71" s="35"/>
       <c r="J71" s="23" t="s">
         <v>428</v>
       </c>
@@ -5578,11 +5578,11 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="8:12">
+    <row r="72" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H72" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="I72" s="33" t="s">
+      <c r="I72" s="35" t="s">
         <v>448</v>
       </c>
       <c r="J72" s="23" t="s">
@@ -5592,9 +5592,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="8:12">
+    <row r="73" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H73" s="34"/>
-      <c r="I73" s="33"/>
+      <c r="I73" s="35"/>
       <c r="J73" s="23" t="s">
         <v>445</v>
       </c>
@@ -5602,33 +5602,33 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="8:12">
+    <row r="74" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H74" s="34"/>
-      <c r="I74" s="33"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="23" t="s">
         <v>443</v>
       </c>
       <c r="K74" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="L74" s="33" t="s">
+      <c r="L74" s="35" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="8:12">
+    <row r="75" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H75" s="34"/>
-      <c r="I75" s="33"/>
+      <c r="I75" s="35"/>
       <c r="J75" s="23" t="s">
         <v>440</v>
       </c>
       <c r="K75" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="L75" s="33"/>
-    </row>
-    <row r="76" spans="8:12">
+      <c r="L75" s="35"/>
+    </row>
+    <row r="76" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H76" s="34"/>
-      <c r="I76" s="33"/>
+      <c r="I76" s="35"/>
       <c r="J76" s="23" t="s">
         <v>438</v>
       </c>
@@ -5636,9 +5636,9 @@
         <v>437</v>
       </c>
     </row>
-    <row r="77" spans="8:12">
+    <row r="77" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H77" s="34"/>
-      <c r="I77" s="33"/>
+      <c r="I77" s="35"/>
       <c r="J77" s="23" t="s">
         <v>436</v>
       </c>
@@ -5649,9 +5649,9 @@
         <v>434</v>
       </c>
     </row>
-    <row r="78" spans="8:12">
+    <row r="78" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H78" s="34"/>
-      <c r="I78" s="33"/>
+      <c r="I78" s="35"/>
       <c r="J78" s="23" t="s">
         <v>433</v>
       </c>
@@ -5662,9 +5662,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="79" spans="8:12">
+    <row r="79" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H79" s="34"/>
-      <c r="I79" s="33"/>
+      <c r="I79" s="35"/>
       <c r="J79" s="23" t="s">
         <v>430</v>
       </c>
@@ -5672,9 +5672,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="80" spans="8:12">
+    <row r="80" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H80" s="34"/>
-      <c r="I80" s="33"/>
+      <c r="I80" s="35"/>
       <c r="J80" s="23" t="s">
         <v>428</v>
       </c>
@@ -5684,6 +5684,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L40:L49"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="I3:I20"/>
+    <mergeCell ref="H3:H20"/>
+    <mergeCell ref="H21:H31"/>
+    <mergeCell ref="I21:I31"/>
+    <mergeCell ref="H32:H39"/>
+    <mergeCell ref="I32:I39"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="I40:I44"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
@@ -5696,16 +5706,6 @@
     <mergeCell ref="I50:I62"/>
     <mergeCell ref="H63:H71"/>
     <mergeCell ref="I63:I71"/>
-    <mergeCell ref="L40:L49"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="I3:I20"/>
-    <mergeCell ref="H3:H20"/>
-    <mergeCell ref="H21:H31"/>
-    <mergeCell ref="I21:I31"/>
-    <mergeCell ref="H32:H39"/>
-    <mergeCell ref="I32:I39"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="I40:I44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5720,13 +5720,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>49</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5854,12 +5854,12 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>52</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>596</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>347</v>
       </c>
@@ -6044,9 +6044,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>553</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>330</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>331</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>333</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>347</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -6274,9 +6274,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>552</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>329</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>343</v>
       </c>
@@ -6368,13 +6368,13 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>348</v>
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>345</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>346</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>347</v>
       </c>
@@ -6436,9 +6436,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>554</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>329</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>263</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>321</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>323</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>324</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>347</v>
       </c>
@@ -6626,9 +6626,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>555</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>368</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>379</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>373</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>347</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>377</v>
       </c>
@@ -6814,9 +6814,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>551</v>
       </c>
@@ -6829,7 +6829,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>263</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>259</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>255</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -7014,7 +7014,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
@@ -7022,7 +7022,7 @@
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>640</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>685</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>641</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>644</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>347</v>
       </c>
@@ -7177,12 +7177,12 @@
       <selection activeCell="K7" sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>698</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -7299,7 +7299,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>347</v>
       </c>
@@ -7331,13 +7331,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3033CA89-5759-4458-B399-0B93D18A463D}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>699</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>701</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -7454,7 +7454,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>347</v>
       </c>
@@ -7490,7 +7490,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
@@ -7505,7 +7505,7 @@
     <col min="16" max="16" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>184</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>312</v>
       </c>
@@ -7633,7 +7633,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>314</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>601</v>
       </c>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>347</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>185</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>177</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>317</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>347</v>
       </c>
@@ -7853,9 +7853,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>556</v>
       </c>
@@ -7868,7 +7868,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>350</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>354</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>358</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>347</v>
       </c>
@@ -8027,9 +8027,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>557</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>360</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>365</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>347</v>
       </c>
@@ -8184,7 +8184,7 @@
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
@@ -8194,12 +8194,12 @@
     <col min="6" max="8" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>118</v>
@@ -8240,7 +8240,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>119</v>
@@ -8249,7 +8249,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33">
+    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>117</v>
@@ -8258,7 +8258,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33">
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>154</v>
@@ -8267,7 +8267,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>121</v>
@@ -8290,7 +8290,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -8318,12 +8318,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>125</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -8345,12 +8345,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>126</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" t="s">
         <v>129</v>
@@ -8392,7 +8392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -8403,12 +8403,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -8475,37 +8475,37 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
       <c r="C38" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
       <c r="C43" t="s">
         <v>140</v>
@@ -8514,7 +8514,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>156</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -8550,49 +8550,49 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="16"/>
       <c r="C50" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="16"/>
       <c r="C51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="16"/>
       <c r="C52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="16"/>
       <c r="C53" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="16"/>
       <c r="C54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="16"/>
       <c r="C55" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="16"/>
       <c r="C56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="16"/>
       <c r="C57" t="s">
         <v>145</v>
@@ -8601,25 +8601,25 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="16"/>
       <c r="C58" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="16"/>
       <c r="C59" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="16"/>
       <c r="C60" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -8630,19 +8630,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" t="s">
         <v>149</v>
@@ -8651,12 +8651,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -8698,14 +8698,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>97</v>
       </c>
@@ -8724,27 +8724,27 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -8755,12 +8755,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>192</v>
       </c>
@@ -8779,22 +8779,22 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -8805,22 +8805,22 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -8850,42 +8850,42 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>208</v>
       </c>
@@ -8904,7 +8904,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
@@ -8915,7 +8915,7 @@
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>632</v>
       </c>
@@ -8928,7 +8928,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>248</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
@@ -9007,7 +9007,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>415</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>419</v>
       </c>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>628</v>
       </c>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>566</v>
       </c>
@@ -9143,16 +9143,16 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>220</v>
       </c>
@@ -9167,7 +9167,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>223</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>229</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>230</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>566</v>
       </c>
@@ -9332,17 +9332,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97158BD8-4E11-4D28-8123-BBD807473609}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>235</v>
       </c>
@@ -9357,7 +9358,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -9380,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -9397,7 +9398,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>558</v>
       </c>
@@ -9414,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>560</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>562</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>566</v>
       </c>
@@ -9518,13 +9519,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>606</v>
       </c>
@@ -9537,7 +9538,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -9560,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>263</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>607</v>
       </c>
@@ -9594,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>347</v>
       </c>
@@ -9611,7 +9612,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>257</v>
       </c>
@@ -9645,13 +9646,13 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>615</v>
       </c>
@@ -9664,7 +9665,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9704,7 +9705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -9721,7 +9722,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>620</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>626</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>623</v>
       </c>
@@ -9769,7 +9770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>225</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>347</v>
       </c>
@@ -9817,9 +9818,9 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>549</v>
       </c>
@@ -9832,7 +9833,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -9855,7 +9856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>248</v>
       </c>
@@ -9892,7 +9893,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -9906,7 +9907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>347</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -9971,9 +9972,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>665</v>
       </c>
@@ -9986,7 +9987,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -10046,7 +10047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>248</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>382</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>384</v>
       </c>
@@ -10091,7 +10092,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>347</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>377</v>
       </c>

--- a/_Project/_ProjectF/엑셀파일/DB/DB.xlsx
+++ b/_Project/_ProjectF/엑셀파일/DB/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV-documents\my-study\_Project\_ProjectF\엑셀파일\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share-422\_Final - 경매 + 쇼핑몰 (아나바다.ver2)\엑셀파일\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1030AE7-47C8-4D19-AC93-DC901BC3E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74639F37-4A08-443F-8DBA-CA830B05F7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="0" windowWidth="21600" windowHeight="12630" activeTab="4" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
+    <workbookView xWindow="14670" yWindow="900" windowWidth="12780" windowHeight="13875" firstSheet="8" activeTab="9" xr2:uid="{6FB1D22E-C8F3-45D7-93BE-E507D12F8317}"/>
   </bookViews>
   <sheets>
     <sheet name="사용자" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,30 @@
     <sheet name="관리자" sheetId="14" r:id="rId3"/>
     <sheet name="판매자" sheetId="12" r:id="rId4"/>
     <sheet name="구매자" sheetId="13" r:id="rId5"/>
-    <sheet name="포인트 계정" sheetId="26" r:id="rId6"/>
-    <sheet name="포인트 변동기록" sheetId="27" r:id="rId7"/>
-    <sheet name="공지사항" sheetId="17" r:id="rId8"/>
-    <sheet name="경고" sheetId="15" r:id="rId9"/>
-    <sheet name="물품" sheetId="3" r:id="rId10"/>
-    <sheet name="카테고리" sheetId="18" r:id="rId11"/>
-    <sheet name="카테고리_분류코드" sheetId="25" r:id="rId12"/>
-    <sheet name="이미지" sheetId="4" r:id="rId13"/>
-    <sheet name="입찰기록" sheetId="5" r:id="rId14"/>
-    <sheet name="주문" sheetId="21" r:id="rId15"/>
-    <sheet name="결제" sheetId="22" r:id="rId16"/>
-    <sheet name="운송장" sheetId="20" r:id="rId17"/>
-    <sheet name="환불" sheetId="19" r:id="rId18"/>
-    <sheet name="리뷰" sheetId="16" r:id="rId19"/>
-    <sheet name="관심물품" sheetId="8" r:id="rId20"/>
-    <sheet name="관심판매자" sheetId="29" r:id="rId21"/>
-    <sheet name="문의사항" sheetId="9" r:id="rId22"/>
-    <sheet name="채팅방" sheetId="23" r:id="rId23"/>
-    <sheet name="채팅 메시지" sheetId="24" r:id="rId24"/>
-    <sheet name="UI흐름" sheetId="10" r:id="rId25"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId26"/>
+    <sheet name="현금 입출금 기록" sheetId="26" r:id="rId6"/>
+    <sheet name="현금코인 전환 신청" sheetId="27" r:id="rId7"/>
+    <sheet name="유저 보유 재화" sheetId="32" r:id="rId8"/>
+    <sheet name="유저 코인 변동 기록" sheetId="30" r:id="rId9"/>
+    <sheet name="관리자 재화 변동 내역" sheetId="31" r:id="rId10"/>
+    <sheet name="공지사항" sheetId="17" r:id="rId11"/>
+    <sheet name="경고" sheetId="15" r:id="rId12"/>
+    <sheet name="물품" sheetId="3" r:id="rId13"/>
+    <sheet name="카테고리" sheetId="18" r:id="rId14"/>
+    <sheet name="카테고리_분류코드" sheetId="25" r:id="rId15"/>
+    <sheet name="이미지" sheetId="4" r:id="rId16"/>
+    <sheet name="입찰기록" sheetId="5" r:id="rId17"/>
+    <sheet name="주문" sheetId="21" r:id="rId18"/>
+    <sheet name="결제" sheetId="22" r:id="rId19"/>
+    <sheet name="운송장" sheetId="20" r:id="rId20"/>
+    <sheet name="환불" sheetId="19" r:id="rId21"/>
+    <sheet name="리뷰" sheetId="16" r:id="rId22"/>
+    <sheet name="관심물품" sheetId="8" r:id="rId23"/>
+    <sheet name="관심판매자" sheetId="29" r:id="rId24"/>
+    <sheet name="문의사항" sheetId="9" r:id="rId25"/>
+    <sheet name="채팅방" sheetId="23" r:id="rId26"/>
+    <sheet name="채팅 메시지" sheetId="24" r:id="rId27"/>
+    <sheet name="UI흐름" sheetId="10" r:id="rId28"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="778">
   <si>
     <t>NULL</t>
   </si>
@@ -398,10 +401,6 @@
   </si>
   <si>
     <t>bidPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1757,10 +1756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DOUBLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2466,18 +2461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB명 : Point_Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 계정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구매용 개인 프로필 구현 시 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2486,82 +2469,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pointBalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointUpdatedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointCreatedDate</t>
+    <t>변동 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금 잔액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminBalance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL(12,2)</t>
-  </si>
-  <si>
-    <t>DB명 : Point_Transaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointTrNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointTrCreatedDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointTrAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양수:충전 음수:사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointTrType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM('charge','use','refund')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동 후 잔액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointTrAfterBalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pointTrDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현금 잔액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminBalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL(12,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2645,19 +2569,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포인트 변동기록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탈퇴요청일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK(point_account.buyerNo)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2818,18 +2734,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ENUM('waiting', 'active', 'expired', 'reserved', 'sold')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2847,6 +2751,415 @@
   </si>
   <si>
     <t>판매자일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전환 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전환 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : Conversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversion_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversion_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversion_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversion_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversion_req_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금/코인 전환 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(admin.admin_no)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 코인 변동 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(item.item_no)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('cash_to_coin', 'coin_to_cash')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑몰 전용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금 입출금 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('deposit', 'withdrawal')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금, 출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('nopassbook', 'card')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장입금, 카드결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_pay_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(12, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(user.user_no)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인으로, 현금으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : ChangeCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changecoin_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changecoin_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changecoin_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changecoin_balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changecoin_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰, 입찰 취소, 
+낙찰, 수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM('bid', 'cancel',  'winning', 'charge')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid(-), cancel(+), 
+winning(+), charge(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 보유 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(Account.user_no)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(goods.user_no)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB명 : AdminCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 재화 변동 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admincoin_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admincoin_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admincoin_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admincoin_balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰, 입찰취소, 낙찰,
+수수료, 출금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admincoin_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admincoin_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payout 시 담당자id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid+, cancel-, winning-,
+charge+, deposit+, payout-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM(bid, cancel, winning, 
+charge, deposit, payout)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3044,7 +3357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3137,6 +3450,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3498,10 +3820,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3577,7 +3899,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3606,36 +3928,36 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D4" t="s">
         <v>218</v>
       </c>
-      <c r="C4" t="s">
-        <v>661</v>
-      </c>
-      <c r="D4" t="s">
-        <v>219</v>
-      </c>
       <c r="F4" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3666,7 +3988,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3683,7 +4005,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -3714,7 +4036,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -3725,61 +4047,61 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="B12" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="B13" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="D13" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" t="s">
-        <v>400</v>
-      </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3787,53 +4109,53 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C15" t="s">
+        <v>576</v>
+      </c>
+      <c r="D15" t="s">
+        <v>566</v>
+      </c>
+      <c r="F15" t="s">
         <v>577</v>
-      </c>
-      <c r="C15" t="s">
-        <v>578</v>
-      </c>
-      <c r="D15" t="s">
-        <v>568</v>
-      </c>
-      <c r="F15" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>582</v>
+      </c>
+      <c r="B16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C16" t="s">
+        <v>576</v>
+      </c>
+      <c r="D16" t="s">
+        <v>566</v>
+      </c>
+      <c r="F16" t="s">
         <v>584</v>
-      </c>
-      <c r="B16" t="s">
-        <v>585</v>
-      </c>
-      <c r="C16" t="s">
-        <v>578</v>
-      </c>
-      <c r="D16" t="s">
-        <v>568</v>
-      </c>
-      <c r="F16" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="B17" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3849,18 +4171,511 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2F176F-4237-4037-A614-EBE6357795FE}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C6" t="s">
+        <v>610</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" t="s">
+        <v>765</v>
+      </c>
+      <c r="C7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B9" t="s">
+        <v>769</v>
+      </c>
+      <c r="C9" t="s">
+        <v>770</v>
+      </c>
+      <c r="G9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3284D97-A5FD-41E3-B5E3-BDABA52B19C3}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A4047F-A347-4082-B586-F7722B1A95BA}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7C05AF-7E12-4759-946A-692EA3490646}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.375" customWidth="1"/>
@@ -3876,12 +4691,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3961,7 +4776,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3996,10 +4811,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -4008,47 +4823,47 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
         <v>289</v>
       </c>
-      <c r="B6" t="s">
-        <v>290</v>
-      </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -4056,10 +4871,10 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -4073,58 +4888,58 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
-        <v>367</v>
-      </c>
-      <c r="G10" t="s">
-        <v>546</v>
+        <v>366</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" t="s">
         <v>280</v>
       </c>
-      <c r="B11" t="s">
-        <v>281</v>
-      </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4132,13 +4947,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
-        <v>232</v>
+      <c r="C12" s="18" t="s">
+        <v>610</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -4149,44 +4964,38 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" t="s">
         <v>421</v>
       </c>
-      <c r="B13" t="s">
-        <v>422</v>
-      </c>
       <c r="C13" t="s">
-        <v>426</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" t="s">
         <v>423</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>424</v>
-      </c>
-      <c r="C14" t="s">
-        <v>426</v>
-      </c>
-      <c r="D14" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" t="s">
         <v>282</v>
       </c>
-      <c r="B15" t="s">
-        <v>283</v>
-      </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -4194,160 +5003,152 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>680</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>692</v>
+        <v>658</v>
+      </c>
+      <c r="B17" t="s">
+        <v>670</v>
       </c>
       <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>681</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>693</v>
+        <v>659</v>
+      </c>
+      <c r="B18" t="s">
+        <v>671</v>
       </c>
       <c r="C18" t="s">
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="A19" t="s">
+        <v>646</v>
+      </c>
+      <c r="B19" t="s">
+        <v>647</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
-        <v>675</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>678</v>
+      <c r="F19" t="s">
+        <v>653</v>
+      </c>
+      <c r="G19" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="A20" t="s">
+        <v>648</v>
+      </c>
+      <c r="B20" t="s">
+        <v>649</v>
+      </c>
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
-        <v>675</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>679</v>
+      <c r="F20" t="s">
+        <v>653</v>
+      </c>
+      <c r="G20" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="b">
+      <c r="A21" t="s">
+        <v>650</v>
+      </c>
+      <c r="B21" t="s">
+        <v>651</v>
+      </c>
+      <c r="C21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D21" t="s">
+        <v>660</v>
+      </c>
+      <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="b">
+      <c r="A22" t="s">
+        <v>654</v>
+      </c>
+      <c r="B22" t="s">
+        <v>655</v>
+      </c>
+      <c r="C22" t="s">
+        <v>652</v>
+      </c>
+      <c r="D22" t="s">
+        <v>660</v>
+      </c>
+      <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B23" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>582</v>
+      </c>
+      <c r="B24" t="s">
+        <v>592</v>
+      </c>
+      <c r="C24" t="s">
+        <v>576</v>
+      </c>
+      <c r="D24" t="s">
+        <v>566</v>
+      </c>
+      <c r="F24" t="s">
         <v>584</v>
-      </c>
-      <c r="B24" t="s">
-        <v>594</v>
-      </c>
-      <c r="C24" t="s">
-        <v>578</v>
-      </c>
-      <c r="D24" t="s">
-        <v>568</v>
-      </c>
-      <c r="F24" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -4359,12 +5160,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758EED46-A08E-4A61-BE27-B63BEC3B529A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4378,12 +5179,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -4415,13 +5216,13 @@
     </row>
     <row r="3" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -4430,44 +5231,44 @@
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" t="s">
         <v>271</v>
-      </c>
-      <c r="B5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" t="s">
-        <v>272</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4475,64 +5276,15 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>694</v>
-      </c>
-      <c r="B8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4543,7 +5295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548EACC9-FAD7-4DA0-A13A-1C914326E1D9}">
   <dimension ref="B1:S80"/>
   <sheetViews>
@@ -4585,36 +5337,36 @@
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="E2" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33" t="s">
+      <c r="C2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="K2" s="33"/>
+      <c r="F2" s="36"/>
+      <c r="H2" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="K2" s="36"/>
       <c r="O2" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
@@ -4622,34 +5374,34 @@
         <v>10</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E3" s="22">
         <v>10</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="H3" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>447</v>
-      </c>
       <c r="K3" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -4657,511 +5409,511 @@
         <v>20</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E4" s="22">
         <v>20</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+        <v>529</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="29"/>
       <c r="P6" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O8" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P9" s="22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="P11" s="28" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="O11" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>505</v>
       </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="23" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="P17" s="22" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H21" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="N23" s="28" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="P18" s="22" t="s">
+      <c r="O23" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="P23" s="28" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="23" t="s">
-        <v>511</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H21" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="23" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="O23" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>505</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
     </row>
     <row r="24" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K24" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="O24" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="O24" s="22" t="s">
-        <v>504</v>
-      </c>
       <c r="P24" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="P28" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H32" s="34" t="s">
-        <v>497</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>496</v>
+      <c r="H32" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>494</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N32" s="28" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O32" s="28"/>
       <c r="P32" s="28" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Q32" s="28"/>
       <c r="R32" s="28"/>
       <c r="S32" s="28"/>
     </row>
     <row r="33" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P33" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
       <c r="J34" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
@@ -5171,515 +5923,515 @@
       <c r="S35" s="27"/>
     </row>
     <row r="36" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
       <c r="J36" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="P36" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="P37" s="22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H40" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="L40" s="38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H41" s="37"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="L41" s="38"/>
+    </row>
+    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H42" s="37"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="L42" s="38"/>
+    </row>
+    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H43" s="37"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="L43" s="38"/>
+    </row>
+    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H44" s="37"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="K36" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="P36" s="22" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="23" t="s">
+      <c r="K44" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="L44" s="38"/>
+    </row>
+    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H45" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="L45" s="38"/>
+    </row>
+    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H46" s="37"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="L46" s="38"/>
+    </row>
+    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H47" s="37"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="L47" s="38"/>
+    </row>
+    <row r="48" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="L48" s="38"/>
+    </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H49" s="37"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="L49" s="38"/>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H50" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H51" s="37"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H52" s="37"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H53" s="37"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H54" s="37"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H55" s="37"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H56" s="37"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H57" s="37"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H58" s="37"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H59" s="37"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="60" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H60" s="37"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H61" s="37"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H62" s="37"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="K62" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H63" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="J63" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H64" s="37"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H65" s="37"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H66" s="37"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H67" s="37"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H68" s="37"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="69" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H69" s="37"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H70" s="37"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H71" s="37"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H72" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="J72" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H73" s="37"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="74" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H74" s="37"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H75" s="37"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="L75" s="38"/>
+    </row>
+    <row r="76" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H76" s="37"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="K76" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="77" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H77" s="37"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="K77" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="K37" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="P37" s="22" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="23" t="s">
+      <c r="L77" s="22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H78" s="37"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="K78" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="K38" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="23" t="s">
+      <c r="L78" s="22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H79" s="37"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="K39" s="22" t="s">
+      <c r="K79" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="L39"/>
-    </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H40" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="L40" s="35" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="L41" s="35"/>
-    </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="L42" s="35"/>
-    </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="L43" s="35"/>
-    </row>
-    <row r="44" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H44" s="34"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="L44" s="35"/>
-    </row>
-    <row r="45" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H45" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="J45" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="L45" s="35"/>
-    </row>
-    <row r="46" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H46" s="34"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="L46" s="35"/>
-    </row>
-    <row r="47" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="L47" s="35"/>
-    </row>
-    <row r="48" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H48" s="34"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="L48" s="35"/>
-    </row>
-    <row r="49" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="L49" s="35"/>
-    </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H50" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="I50" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="51" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H51" s="34"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H52" s="34"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="K52" s="22" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H53" s="34"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H54" s="34"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="K54" s="22" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="55" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H55" s="34"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H56" s="34"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="K56" s="22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H57" s="34"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="K57" s="22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H58" s="34"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H59" s="34"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="60" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H60" s="34"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="K60" s="22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="61" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H61" s="34"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="K61" s="22" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="62" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H62" s="34"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="K62" s="22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="63" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H63" s="34" t="s">
-        <v>458</v>
-      </c>
-      <c r="I63" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="J63" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="64" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H64" s="34"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="K64" s="22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H65" s="34"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="K65" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="L65" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H66" s="34"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="K66" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="67" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H67" s="34"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="K67" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="L67"/>
-    </row>
-    <row r="68" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H68" s="34"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="K68" s="22" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="69" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H69" s="34"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="K69" s="22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="70" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H70" s="34"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="K70" s="22" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="71" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H71" s="34"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="K71" s="22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="72" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H72" s="34" t="s">
-        <v>449</v>
-      </c>
-      <c r="I72" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="J72" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="K72" s="22" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="73" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H73" s="34"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="K73" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="74" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H74" s="34"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="K74" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="L74" s="35" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="75" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H75" s="34"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="K75" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="L75" s="35"/>
-    </row>
-    <row r="76" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H76" s="34"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="K76" s="22" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="77" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H77" s="34"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="K77" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="L77" s="22" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="78" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H78" s="34"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="K78" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="L78" s="22" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="79" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H79" s="34"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="K79" s="22" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="80" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H80" s="34"/>
-      <c r="I80" s="35"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="38"/>
       <c r="J80" s="23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5712,7 +6464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A792E0B4-3461-4F02-B828-3516C74AB385}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -5727,10 +6479,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5791,7 +6543,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5820,7 +6572,7 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5835,588 +6587,6 @@
       </c>
       <c r="D5" t="s">
         <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EFDD6C-F0EF-4C8C-9E84-F1C678D3A609}">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="C8" t="s">
-        <v>407</v>
-      </c>
-      <c r="D8" t="s">
-        <v>405</v>
-      </c>
-      <c r="F8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3736D33E-80AC-43C7-A50D-44616A65F633}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>406</v>
-      </c>
-      <c r="G5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>405</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" t="s">
-        <v>335</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE21629-CEE3-414A-8B1C-A313650A7767}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B9" t="s">
-        <v>572</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -6429,31 +6599,35 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F974D4-FDA7-4E45-8A78-2C87CFB608CF}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EFDD6C-F0EF-4C8C-9E84-F1C678D3A609}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="B1" s="32"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>666</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6475,13 +6649,25 @@
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -6493,15 +6679,27 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -6513,12 +6711,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -6530,84 +6728,84 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" t="s">
-        <v>326</v>
+        <v>86</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>610</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="G7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B8" t="s">
-        <v>394</v>
+        <v>346</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>568</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>406</v>
+      </c>
+      <c r="D8" t="s">
+        <v>404</v>
       </c>
       <c r="F8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>182</v>
-      </c>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="32"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6619,24 +6817,26 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0A7AF-BB12-47CD-8611-1CE0DDC4CAFD}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3736D33E-80AC-43C7-A50D-44616A65F633}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>707</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6669,7 +6869,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -6681,12 +6881,12 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -6695,7 +6895,7 @@
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>48</v>
@@ -6703,98 +6903,155 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
+      <c r="F5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G5" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>574</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
-      </c>
-      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" t="s">
-        <v>378</v>
-      </c>
-      <c r="F10" t="s">
-        <v>406</v>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6807,31 +7064,33 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB896E98-11E6-41A5-AD28-910EFB397851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE21629-CEE3-414A-8B1C-A313650A7767}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>707</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -6857,27 +7116,27 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>341</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -6888,104 +7147,81 @@
       <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G5" t="s">
-        <v>310</v>
+      <c r="F5" s="19" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" t="s">
-        <v>311</v>
-      </c>
+      <c r="A6" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A7" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>260</v>
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>391</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>570</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
@@ -6994,7 +7230,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>586</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7023,12 +7259,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>640</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -7063,7 +7299,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -7075,24 +7311,24 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="B4" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="C4" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="D4" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="G4" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -7100,55 +7336,55 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="C5" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="B6" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="C6" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="B7" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
@@ -7157,7 +7393,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7170,35 +7406,31 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CEFFC5-3817-4B67-9183-C734F7DF74BC}">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F974D4-FDA7-4E45-8A78-2C87CFB608CF}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="A1:K7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>698</v>
-      </c>
-      <c r="B1" s="31"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>644</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="I1" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7220,103 +7452,139 @@
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="18"/>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7328,6 +7596,552 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE0A7AF-BB12-47CD-8611-1CE0DDC4CAFD}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB896E98-11E6-41A5-AD28-910EFB397851}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CEFFC5-3817-4B67-9183-C734F7DF74BC}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3033CA89-5759-4458-B399-0B93D18A463D}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -7338,12 +8152,12 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="34" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -7379,7 +8193,7 @@
         <v>54</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>25</v>
@@ -7413,10 +8227,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -7456,10 +8270,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>73</v>
@@ -7469,7 +8283,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="18"/>
     </row>
@@ -7482,7 +8296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050D4D1A-50D8-4F2C-AC04-93964DE080C1}">
   <dimension ref="A1:P17"/>
   <sheetViews>
@@ -7506,12 +8320,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="31"/>
+      <c r="A1" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -7526,7 +8340,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -7573,7 +8387,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -7585,7 +8399,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -7614,10 +8428,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>312</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>313</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>63</v>
@@ -7626,7 +8440,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -7635,16 +8449,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>316</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="b">
@@ -7659,7 +8473,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -7673,7 +8487,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -7684,29 +8498,29 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>601</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>603</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
@@ -7715,16 +8529,16 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="31"/>
+      <c r="A11" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="34"/>
       <c r="C11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -7755,7 +8569,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -7767,15 +8581,15 @@
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -7789,19 +8603,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>318</v>
-      </c>
       <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
         <v>178</v>
       </c>
-      <c r="D15" t="s">
-        <v>179</v>
-      </c>
       <c r="E15" s="18" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -7809,30 +8623,30 @@
         <v>19</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7845,7 +8659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4258ADBF-E590-4588-BBC4-C5B7FD4237CE}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -7856,12 +8670,12 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -7896,7 +8710,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -7908,12 +8722,12 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -7925,15 +8739,15 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
         <v>350</v>
-      </c>
-      <c r="B5" t="s">
-        <v>351</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -7947,10 +8761,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
         <v>352</v>
-      </c>
-      <c r="B6" t="s">
-        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -7964,41 +8778,41 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" t="s">
         <v>354</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>355</v>
-      </c>
-      <c r="C7" t="s">
-        <v>356</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
@@ -8007,7 +8821,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -8019,7 +8833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC88C87E-3684-4627-8A9C-23D034EE00E1}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -8030,12 +8844,12 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -8070,7 +8884,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -8082,15 +8896,15 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -8104,10 +8918,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -8116,7 +8930,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -8124,7 +8938,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -8135,13 +8949,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
         <v>365</v>
       </c>
-      <c r="B7" t="s">
-        <v>366</v>
-      </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -8152,10 +8966,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
@@ -8164,7 +8978,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -8176,7 +8990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA71358-18BB-4801-96A6-46744A3F4698}">
   <dimension ref="A1:H68"/>
   <sheetViews>
@@ -8196,244 +9010,244 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -8441,13 +9255,13 @@
         <v>23</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -8455,96 +9269,96 @@
         <v>22</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
         <v>156</v>
       </c>
-      <c r="C46" t="s">
-        <v>157</v>
-      </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -8553,13 +9367,13 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="16"/>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="16"/>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -8571,7 +9385,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="16"/>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -8583,40 +9397,40 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="16"/>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="16"/>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" s="16"/>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="16"/>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="16"/>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="16"/>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -8624,7 +9438,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -8633,7 +9447,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -8645,43 +9459,43 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +9504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD282D77-3B58-4543-85E7-73C122E60DCD}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -8707,133 +9521,133 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
         <v>192</v>
-      </c>
-      <c r="C12" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -8841,53 +9655,53 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -8901,7 +9715,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8916,12 +9730,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -8953,10 +9767,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
         <v>248</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -8968,7 +9782,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -8976,7 +9790,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>64</v>
@@ -8987,7 +9801,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8995,10 +9809,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>36</v>
@@ -9009,13 +9823,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -9026,13 +9840,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
@@ -9043,13 +9857,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -9060,49 +9874,49 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" t="s">
         <v>415</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>416</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>417</v>
-      </c>
-      <c r="D9" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>420</v>
-      </c>
       <c r="C10" s="18" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="20" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18">
@@ -9112,20 +9926,20 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>566</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>568</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G12" s="18"/>
     </row>
@@ -9143,7 +9957,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9153,15 +9967,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -9192,7 +10006,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -9204,32 +10018,32 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" t="s">
         <v>223</v>
-      </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" t="s">
-        <v>224</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -9240,10 +10054,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -9257,10 +10071,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -9274,13 +10088,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -9291,31 +10105,31 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>566</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>568</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -9332,27 +10146,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97158BD8-4E11-4D28-8123-BBD807473609}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -9383,7 +10196,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -9395,15 +10208,15 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -9417,10 +10230,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -9434,10 +10247,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -9451,13 +10264,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -9468,13 +10281,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -9485,20 +10298,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>566</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>568</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -9513,25 +10326,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB376DC-70BD-4157-BC2A-02FCD11D3DD2}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>606</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9563,70 +10380,115 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>712</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>711</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>728</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>610</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>607</v>
+        <v>713</v>
       </c>
       <c r="B4" t="s">
-        <v>611</v>
+        <v>714</v>
       </c>
       <c r="C4" t="s">
-        <v>614</v>
+        <v>728</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>715</v>
       </c>
       <c r="B5" t="s">
-        <v>613</v>
+        <v>726</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>719</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>182</v>
+      <c r="G5" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>716</v>
       </c>
       <c r="B6" t="s">
-        <v>612</v>
+        <v>722</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>729</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>586</v>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B8" t="s">
+        <v>727</v>
+      </c>
+      <c r="C8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D8" t="s">
+        <v>733</v>
+      </c>
+      <c r="G8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D9" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -9643,22 +10505,26 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>651</v>
+        <v>695</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9690,13 +10556,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>734</v>
       </c>
       <c r="B3" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>701</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -9704,101 +10570,98 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
+      <c r="G3" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>683</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>682</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>701</v>
       </c>
       <c r="D4" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="E4" t="s">
-        <v>654</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>620</v>
+        <v>684</v>
       </c>
       <c r="B5" t="s">
-        <v>621</v>
+        <v>688</v>
       </c>
       <c r="C5" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
+      <c r="F5" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>626</v>
+        <v>685</v>
       </c>
       <c r="B6" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="C6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>619</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>623</v>
+        <v>735</v>
       </c>
       <c r="B7" t="s">
-        <v>624</v>
+        <v>693</v>
       </c>
       <c r="C7" t="s">
-        <v>614</v>
+        <v>702</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
+      <c r="F7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>686</v>
       </c>
       <c r="B8" t="s">
-        <v>625</v>
+        <v>692</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>737</v>
       </c>
       <c r="B9" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>182</v>
+        <v>701</v>
+      </c>
+      <c r="E9" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -9811,22 +10674,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3284D97-A5FD-41E3-B5E3-BDABA52B19C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251AD05-209C-4DE7-B0C6-24BB9C3FAC2B}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>748</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -9858,10 +10729,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>734</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>753</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -9873,15 +10744,15 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>682</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -9890,69 +10761,69 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>750</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>754</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>610</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>751</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>755</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>610</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>772</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>773</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
+        <v>774</v>
       </c>
       <c r="F7" t="s">
-        <v>404</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>752</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>756</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -9965,22 +10836,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A4047F-A347-4082-B586-F7722B1A95BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6117DD21-843C-4D35-8E4D-C6BB2644F2BA}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>704</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -10012,10 +10891,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>734</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>739</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -10027,15 +10906,15 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>696</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>714</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -10044,15 +10923,15 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>700</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>742</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -10061,66 +10940,72 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>697</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
+        <v>740</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>746</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>606</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>741</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>610</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>698</v>
       </c>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>743</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>610</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>699</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>744</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
       </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" t="s">
-        <v>583</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
